--- a/resultados_processos.xlsx
+++ b/resultados_processos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,85 +453,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TJSP-D-2025-09-11_101.json</t>
+          <t>TJSP-D-2025-09-12_102.json</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10007326120258260236</t>
+          <t>10014563620238260236</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Processo 1000732-61.2025.8.26.0236 - Procedimento Comum Cível - Benefícios em Espécie - José Francisco Lourenço da Silva  - Instituto Nacional do Seguro Social - INSS  - Vistos. Considerando as manifestações lançadas nos autos, homologo o acordo de fls. 167/169, julgando extinto o processo nos termos do 487, inciso III, alínea "b", do Código de Processo Civil. Não há interesse recursal, de modo que a sentença transitou em julgado nesta data, dispensando a serventia de expedir certidão específica e, em consequência, determino o arquivamento dos autos. Tendo em vista a juntada aos autos do laudo e não havendo esclarecimentos a serem prestados, expeça-se o necessário para pagamento dos honorários periciais. Oficie-se ao ELABDJ da gerência executiva do INSS em Araraquara, para implantação do benefício previdenciário no prazo de 45 (quarenta e cinco) dias úteis,sob pena de aplicação de multa diária no valor de R$ 100,00 (cem reais) pelo descumprimento injustificado da ordem, até o limite de R$ 10.000,00 (dez mil reais). Esta decisão serve como ofício requisitório, por cópia em arquivo digital, devendo a z. serventia proceder o envio ao endereço eletrônico sadj.gexacq@inss.gov.br instruindo com as peças necessárias para o cumprimento, juntando aos autos, o comprovante de envio e recebimento. Com a notícia da implantação, intime-se o INSS para apresentação de cálculos em execução invertida, intimando o requerente, a seguir. Registro que, na ausência de apresentação pela parte requerida ou no caso de discordância quanto ao cálculo apresentado pelo INSS, o requerente deverá dar início ao incidente de cumprimento de sentença. Lado outro, caso o requerente noticie o descumprimento, no prazo estabelecido, independentemente de nova conclusão, DEFIRO que se intime, pessoalmente, o Senhor Diretor da Agência de Atendimento de Demanda Judicial, para imediato cumprimento da determinação judicial expressa no ofício retro, sob pena de incorrer em crime de desobediência, expedindo-se o mandado a ser cumprido via central compartilhada, na modalidade urgente. Dê-se ciência ao INSS. Oportunamente, arquivem-se. P. I. C. - ADV: JOSE VALDIR MARTELLI SOCIEDADE INDIVIDUAL DE ADVOCACIA (OAB 23389/SP), RICARDO BALBINO DE SOUZA (OAB 229677/SP)</t>
+          <t>Processo 1001456-36.2023.8.26.0236 - Cumprimento de Sentença contra a Fazenda Pública - Aposentadoria Rural (Art. 48/51) - Regina Galhardo de Souza  - Instituto Nacional do Seguro Social - INSS  - Ciência, às partes, para conferência, da minuta de requisitório/precatório retro confeccionada. Prazo para manifestação: 10 dias. - ADV: FABIANE RUIZ MAGALHAES DE ANDRADE NASCIMENTO (OAB 151898/SP), GUILHERME BARBOSA FRANCO PEDRESCHI (OAB 243095/SP)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TJSP-D-2025-09-11_102.json</t>
+          <t>TJSP-D-2025-09-12_102.json</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00034955720258260590</t>
+          <t>00017859420258260236</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Processo 0003495-57.2025.8.26.0590 (processo principal 1006984-22.2024.8.26.0590) - Cumprimento de Sentença contra a Fazenda Pública - Auxílio-Acidente (Art. 86) - Dacio Maximo de Godoi Junior - Diante da manifestação do INSS concordando com os valores apresentados pelo exequente, HOMOLOGO, para que produza seus jurídicos e legais efeitos, os cálculos elaborados pelo credor (fls. 27/30), fixando como valor do débito exequendo a importância de R$ 25.428,22. Passo à fixação dos honorários advocatícios. In casu, considerando-se que o valor da condenação nos autos é inferior a 200 salários mínimos, tem-se que a fixação do percentual deverá se dar no mínimo de 10% e máximo de 20% (art. 85, inciso I, § 3º, do NCPC). Por outro lado, levando-se em conta o trabalho desenvolvido pelo patrono do requerente-exequente nos autos, especialmente porque não houve complexidade no curso da demanda a justificar fixação em percentual superior ao mínimo legal, estabeleço os honorários advocatícios em favor do patrono da parte exequente em 10% (dez por cento) da condenação, excluídas as parcelas vencidas posteriormente à prolação da sentença. Decorrido o prazo recursal contra o presente decisum, nos termos do Comunicado nº 394/2015, disponibilizado no Diário da Justiça Eletrônico de 02/07/2015, que implantou em todas as Varas do Estado de São Paulo o novo Sistema Digital de Precatórios e RPV, as petições de solicitação de expedição de Ofício Requisitório somente serão admitidas no formato digital, tanto para processos físicos como digitais, providencie a parte exequente o seu pedido de expedição através do Portal e-Saj, Petição Intermediária, cuja funcionalidade específica para precatórios está habilitada. Destaco, desde logo, que todo o procedimento referente aos Precatórios e RPV se dará por meio exclusivamente digital, através de um Incidente Processual a ser criado com esse peticionamento eletrônico pela parte interessada. Comprove a parte credora a protocolização do expediente, no prazo de 30 (trinta) dias. Na inércia, tratando-se de cumprimento de sentença, aguarde-se provocação do exequente no arquivo. - ADV: FABIO BORGES BLAS RODRIGUES (OAB 153037/SP)</t>
+          <t>Processo 0001785-94.2025.8.26.0236 (apensado ao processo 1004611-13.2024.8.26.0236) (processo principal 1004611-13.2024.8.26.0236) - Cumprimento de sentença - Aposentadoria por Invalidez - Fabiana Aparecida Borges Colombo  - Instituto Nacional do Seguro Social - INSS  - Ciência, às partes, para conferência, da minuta de requisitório/precatório retro confeccionada. Prazo para manifestação: 10 dias. - ADV: JULIANA CHILIGA (OAB 288300/SP), ANGELICA CARRO (OAB 134543/SP)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TJSP-D-2025-09-11_102.json</t>
+          <t>TJSP-D-2025-09-12_11.json</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10076914220198260597</t>
+          <t>00156080520258260053</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Processo 1007691-42.2019.8.26.0597 - Procedimento Comum Cível - Aposentadoria por Invalidez - Vicente Neres de Oliveira  - Instituto Nacional do Seguro Social - INSS  - Vistos. Os dados da requisição estão de acordo com o anteriormente determinado. Assim, determino a expedição do ofício requisitório com urgência. Intime-se as partes da presente decisão para manifestação, no prazo de 05 dias, nos termos do Comunicado 03/2025 da Diretoria De Execuções de Precatórios e Cálculos. Transcorrido o prazo sem oposição das partes, expeça-se o ofício requisitório. Aguarde-se sua quitação, certificando-se nos autos principais. Intime-se. - ADV: PAULA YURI UEMURA (OAB 222966/SP), FABIO EDUARDO DE LAURENTIZ (OAB 170930/SP)</t>
+          <t>Processo 0015608-05.2025.8.26.0053 (processo principal 1064327-35.2024.8.26.0053) - Cumprimento de Sentença contra a Fazenda Pública - Auxílio-Acidente (Art. 86) - Miriam Lemos Santos  - INSTITUTO NACIONAL DO SEGURO SOCIAL - INSS  - Vistos. 1) Homologação dos cálculos: Com a concordância da parte contrária (fls. 66), homologo os cálculos apresentados (fls. 50) e atualizados para 08/2025 (data-base), que correspondem ao importe total de R$ 69.839,17, composto pelas seguintes parcelas: R$ 47.883,64 - principal bruto/líquido; R$ 15.606,51 - juros moratórios; R$ 6.349,02 - honorários advocatícios. Os valores devem ser atualizados na data do efetivo pagamento pelo INSS. Ausente o interesse recursal, dá-se o trânsito em julgado deste item nesta data. 2) Peticionamento eletrônico do incidente processual: Nos termos do Comunicado SPI nº 03/2014, providencie a parte autora a instauração do incidente processual de requisição de pagamento (RPV ou Precatório) pelo sistema de peticionamento eletrônico (portal e-SAJ). Os valores do requisitório deverão ser discriminados e individualizados de acordo com a natureza de cada parcela (principal, juros de mora, honorários advocatícios), em conformidade estrita com a conta homologada e nos termos da presente decisão. Conforme o artigo 9º da Resolução nº 551/2011 do Órgão Especial do E. TJSP e art. 1.197, §§1º e 2º das NSCGJ, para a instrução e conferência do incidente processual, o(a) requerente deverá apresentar sua petição de requerimento com cópia dos seguintes documentos necessários para a expedição do ofício requisitório, devidamente separados e categorizados, sob pena de indeferimento, nos termos dos artigos 5º, § 2º e 6º, § 3 do Provimento 2.753/2024: I - sentença e/ou acórdão referentes à condenação pelo juízo de origem ou cópia autenticada do título executivo extrajudicial, se o caso; II - certidão de trânsito em julgado da fase de conhecimento; III - decisão definitiva que homologou os cálculos objeto da requisição ou decisão que determinou a expedição dos valores incontroversos; IV - certidão do trânsito em julgado dos embargos à execução ou da decisão que resolveu a impugnação ao cumprimento de sentença, ou do decurso de prazo para sua interposição; V - demonstrativo do cálculo homologado, exclusivamente relativo ao credor do requisitório individualizado, com a discriminação das verbas incidentes sobre o principal, bem como a data-base para a atualização dos valores; VI - cópia da procuração e substabelecimento do beneficiário outorgando poderes ao(s) advogado(s), com poderes para receber e dar quitação, nos quais deverão conter o nome legível e número de inscrição na OAB. VII - contrato de honorários advocatícios, quando requerido o destaque dessa verba; VIII - cópia do documento de identificação oficial e válido do beneficiário; IX dados de conta bancária hábil ao recebimento do crédito a ser requisitado (Banco, Código do Banco, Agência, Conta, Tipo de conta, Código de Varia - caso se trate de conta poupança, Titularidade da Conta, CPF/CNPJ do Titular da Conta), o qual deverá ser pago diretamente pela entidade devedora ao credor, sem necessidade de depósito em conta judicial. X - outros documentos considerados como indispensáveis ao processamento da requisição no caso concreto. 3) Requisição do crédito do(a) advogado(a): A critério dos interessados, os valores devidos poderão ser requisitados conjuntamente, em um único incidente processual, ou requisitados de forma apartada, separando-se o valor do crédito principal (principal bruto/líquido + juros moratórios) e o valor da sucumbência, nos termos da Súmula Vinculante nº 47, hipótese em que os(as) exequentes deverão providenciar, em incidentes processuais distintos, a requisição do crédito do(a) autor(a) e dos valores devidos a título de honorários de sucumbência, sendo o primeiro formado em nome da parte autora e o último formado em nome do(a) advogado(a) requerente. Já os honorários advocatícios contratuais devem ser obrigatoriamente requisitados juntamente do principal, sob pena de configurar fracionamento. A Entidade Devedora é parte estranha ao contrato firmado entre o(a) exequente e seu(sua) advogado(a) (STF, RE 1.094.439 AgR, 2ª T, Rel. Min. DIAS TOFFOLI, j. 2.3.2018). Na hipótese de o(a) advogado(a) pretender a individualização dos honorários contratuais em campo próprio dentro do requisitório do crédito do(a) exequente, deverá apresentar planilha da conta, com a exata separação das verbas referentes ao principal bruto/líquido, juros de mora, honorários sucumbenciais, honorários contratuais e demais verbas, e cópia do contrato de prestação de serviços. 4) Individualização de requisitórios: Havendo mais de um credor, os ofícios de requisição deverão ser expedidos de modo individual por credor em requisições separadas, na proporção devida a cada um, ainda que exista litisconsórcio, bem como a planilha de cálculos e a documentação necessária igualmente deverão ser apresentadas de forma individualizada por credor, nos termos da Portaria nº 9.622/2018 (D.J.E. de 08/06/18) e do Comunicado Conjunto nº 1.212/2018 (D.J.E. de 22/06/18), que regulamentam a expedição dos requisitórios de pagamento no âmbito deste Tribunal. Para tanto, deverão os(as) exequentes apresentar, antes do peticionamento eletrônico do incidente processual e nos autos do Cumprimento de Sentença contra a Fazenda Pública, a competente planilha de cálculo, com a exata separação das verbas, individualizadas por credor, a fim de possibilitar a correta aferição pela parte contrária e por este Juízo do quinhão cabente a cada requerente ou litisconsorte. 5) Disposições finais: Defiro o prazo de 30 (trinta) dias para cumprimento. Devidamente instaurados os incidentes e requisitados os valores, aguarde-se o pagamento lançando-se o código SAJ nº 15.247, Após extinção do ultimo incidente pela quitação, estes autos deverão ser remetidos à conclusão para extinção da execução, nos termos do § 1º do art. 1.291 do provimento CGJ nº 29/2023). No silêncio a qualquer tempo, certifique-se e aguarde-se provocação no arquivo provisório (61614). Int. - ADV: SILVIO AUGUSTO DE MOURA CAMPOS (OAB 184864/SP), LUIZ GUSTAVO BERTOLINI NASSIF (OAB 514529/SP)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TJSP-D-2025-09-11_104.json</t>
+          <t>TJSP-D-2025-09-12_11.json</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00031824320248260619</t>
+          <t>00093420220258260053</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Processo 0003182-43.2024.8.26.0619 (processo principal 1001066-57.2018.8.26.0619) - Cumprimento de Sentença contra a Fazenda Pública - Aposentadoria Especial (Art. 57/8) - ISIDORO PEDRO AVI SOCIEDADE DE ADVOGADOS - Vistos. Trata-se de Cumprimento de Sentença movido por Isidoro Pedro Avi Sociedade De Advogados em face do Instituto Nacional do Seguro Social - INSS, visando à satisfação de crédito reconhecido judicialmente. Noticiado nos autos o pagamento integral do valor requisitado, por meio da expedição de ofício requisitório (precatório/RPV), conforme comprovantes juntados aos autos, dando-se, assim, plena satisfação à obrigação executada. Diante da quitação do débito, julgo extinto o presente cumprimento de sentença, com fundamento no artigo 924, inciso II, do Código de Processo Civil, em razão do adimplemento integral da obrigação pelo executado INSS. Não havendo interesse recursal, certifique-se imediatamente o trânsito em julgado. Determino a expedição de Alvará Eletrônico em favor de seu respectivo credor, nos termos da requisição paga, observando-se a parte que lhes cabe e, se for o caso, a representação processual ou curatela/guardadoria regularmente constituída. Sem custas, diante da gratuidade ou da isenção legal aplicável. Anote-se na movimentação unitária, arquivando-se ao final. Publique-se. Intimem-se.Cumpra-se. - ADV: ISIDORO PEDRO AVI (OAB 140426/SP)</t>
+          <t>Processo 0009342-02.2025.8.26.0053 (processo principal 1081368-49.2023.8.26.0053) - Cumprimento de Sentença contra a Fazenda Pública - Auxílio-Acidente (Art. 86) - Jose Eleilson de Jesus Fagundes - Vistos. 1) Homologação dos cálculos: Com a concordância da parte contrária (fls. 123), homologo os cálculos apresentados (fls. 108) e atualizados para 08/2025 (data-base), que correspondem ao importe total de R$ 37.487,36, composto pelas seguintes parcelas: R$ 28.656,64 - principal bruto/líquido; R$ 4.816,40 - juros moratórios; R$ 4.014,32 - honorários advocatícios. Os valores devem ser atualizados na data do efetivo pagamento pelo INSS. Ausente o interesse recursal, dá-se o trânsito em julgado deste item nesta data. 2) Peticionamento eletrônico do incidente processual: Nos termos do Comunicado SPI nº 03/2014, providencie a parte autora a instauração do incidente processual de requisição de pagamento (RPV ou Precatório) pelo sistema de peticionamento eletrônico (portal e-SAJ). Os valores do requisitório deverão ser discriminados e individualizados de acordo com a natureza de cada parcela (principal, juros de mora, honorários advocatícios), em conformidade estrita com a conta homologada e nos termos da presente decisão. Conforme o artigo 9º da Resolução nº 551/2011 do Órgão Especial do E. TJSP e art. 1.197, §§1º e 2º das NSCGJ, para a instrução e conferência do incidente processual, o(a) requerente deverá apresentar sua petição de requerimento com cópia dos seguintes documentos necessários para a expedição do ofício requisitório, devidamente separados e categorizados, sob pena de indeferimento, nos termos dos artigos 5º, § 2º e 6º, § 3 do Provimento 2.753/2024: I - sentença e/ou acórdão referentes à condenação pelo juízo de origem ou cópia autenticada do título executivo extrajudicial, se o caso; II - certidão de trânsito em julgado da fase de conhecimento; III - decisão definitiva que homologou os cálculos objeto da requisição ou decisão que determinou a expedição dos valores incontroversos; IV - certidão do trânsito em julgado dos embargos à execução ou da decisão que resolveu a impugnação ao cumprimento de sentença, ou do decurso de prazo para sua interposição; V - demonstrativo do cálculo homologado, exclusivamente relativo ao credor do requisitório individualizado, com a discriminação das verbas incidentes sobre o principal, bem como a data-base para a atualização dos valores; VI - cópia da procuração e substabelecimento do beneficiário outorgando poderes ao(s) advogado(s), com poderes para receber e dar quitação, nos quais deverão conter o nome legível e número de inscrição na OAB. VII - contrato de honorários advocatícios, quando requerido o destaque dessa verba; VIII - cópia do documento de identificação oficial e válido do beneficiário; IX dados de conta bancária hábil ao recebimento do crédito a ser requisitado (Banco, Código do Banco, Agência, Conta, Tipo de conta, Código de Varia - caso se trate de conta poupança, Titularidade da Conta, CPF/CNPJ do Titular da Conta), o qual deverá ser pago diretamente pela entidade devedora ao credor, sem necessidade de depósito em conta judicial. X - outros documentos considerados como indispensáveis ao processamento da requisição no caso concreto. 3) Requisição do crédito do(a) advogado(a): A critério dos interessados, os valores devidos poderão ser requisitados conjuntamente, em um único incidente processual, ou requisitados de forma apartada, separando-se o valor do crédito principal (principal bruto/líquido + juros moratórios) e o valor da sucumbência, nos termos da Súmula Vinculante nº 47, hipótese em que os(as) exequentes deverão providenciar, em incidentes processuais distintos, a requisição do crédito do(a) autor(a) e dos valores devidos a título de honorários de sucumbência, sendo o primeiro formado em nome da parte autora e o último formado em nome do(a) advogado(a) requerente. Já os honorários advocatícios contratuais devem ser obrigatoriamente requisitados juntamente do principal, sob pena de configurar fracionamento. A Entidade Devedora é parte estranha ao contrato firmado entre o(a) exequente e seu(sua) advogado(a) (STF, RE 1.094.439 AgR, 2ª T, Rel. Min. DIAS TOFFOLI, j. 2.3.2018). Na hipótese de o(a) advogado(a) pretender a individualização dos honorários contratuais em campo próprio dentro do requisitório do crédito do(a) exequente, deverá apresentar planilha da conta, com a exata separação das verbas referentes ao principal bruto/líquido, juros de mora, honorários sucumbenciais, honorários contratuais e demais verbas, e cópia do contrato de prestação de serviços. 4) Individualização de requisitórios: Havendo mais de um credor, os ofícios de requisição deverão ser expedidos de modo individual por credor em requisições separadas, na proporção devida a cada um, ainda que exista litisconsórcio, bem como a planilha de cálculos e a documentação necessária igualmente deverão ser apresentadas de forma individualizada por credor, nos termos da Portaria nº 9.622/2018 (D.J.E. de 08/06/18) e do Comunicado Conjunto nº 1.212/2018 (D.J.E. de 22/06/18), que regulamentam a expedição dos requisitórios de pagamento no âmbito deste Tribunal. Para tanto, deverão os(as) exequentes apresentar, antes do peticionamento eletrônico do incidente processual e nos autos do Cumprimento de Sentença contra a Fazenda Pública, a competente planilha de cálculo, com a exata separação das verbas, individualizadas por credor, a fim de possibilitar a correta aferição pela parte contrária e por este Juízo do quinhão cabente a cada requerente ou litisconsorte. 5) Disposições finais: Defiro o prazo de 30 (trinta) dias para cumprimento. Devidamente instaurados os incidentes e requisitados os valores, aguarde-se o pagamento lançando-se o código SAJ nº 15.247, Após extinção do ultimo incidente pela quitação, estes autos deverão ser remetidos à conclusão para extinção da execução, nos termos do § 1º do art. 1.291 do provimento CGJ nº 29/2023). No silêncio a qualquer tempo, certifique-se e aguarde-se provocação no arquivo provisório (61614). Int. - ADV: SILVIA RENATA TIRELI FORTES (OAB 169582/SP), MARCIO SILVA COELHO (OAB 45683/SP)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TJSP-D-2025-09-11_105.json</t>
+          <t>TJSP-D-2025-09-12_11.json</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00433994320108260224</t>
+          <t>00185293420258260053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Processo 0043399-43.2010.8.26.0224/01 - Requisição de Pequeno Valor - Auxílio-Acidente (Art. 86) - Francisca Maria da Silva  - INSS - INSTITUTO NACIONAL DO SEGURO SOCIAL  - Vistos. O presente incidente foi instaurado meramente para fins requisitórios, dada sua natureza administrativa. De tal modo, as partes devem evitar o peticionamento nestes autos, sobretudo, após o processamento pela DEPRE. As manifestações e pedidos devem ser direcionados aos autos da ação principal ou do cumprimento de sentença, se o caso. Devolvam-se estes autos ao arquivo definitivo, com extinção no sistema. Intime-se. - ADV: THIAGO MORAIS FLOR (OAB 257536/SP), AMIR MOURAD NADDI (OAB 318496/SP)</t>
+          <t>Processo 0018529-34.2025.8.26.0053 (processo principal 1060215-23.2024.8.26.0053) - Cumprimento de Sentença contra a Fazenda Pública - Auxílio-Acidente (Art. 86) - Nelson Sergio de Jesus - Vistos. 1) Homologação dos cálculos: Com a concordância da parte contrária (fls. 37), homologo os cálculos apresentados (fls. 26) e atualizados para 08/2025 (data-base), que correspondem ao importe total de R$ 28.232,51, composto pelas seguintes parcelas: R$ 23.433,82 - principal bruto/líquido; R$ 1.864,60 - juros moratórios; R$ 2.934,09 - honorários advocatícios. Os valores devem ser atualizados na data do efetivo pagamento pelo INSS. Ausente o interesse recursal, dá-se o trânsito em julgado deste item nesta data. 2) Peticionamento eletrônico do incidente processual: Nos termos do Comunicado SPI nº 03/2014, providencie a parte autora a instauração do incidente processual de requisição de pagamento (RPV ou Precatório) pelo sistema de peticionamento eletrônico (portal e-SAJ). Os valores do requisitório deverão ser discriminados e individualizados de acordo com a natureza de cada parcela (principal, juros de mora, honorários advocatícios), em conformidade estrita com a conta homologada e nos termos da presente decisão. Conforme o artigo 9º da Resolução nº 551/2011 do Órgão Especial do E. TJSP e art. 1.197, §§1º e 2º das NSCGJ, para a instrução e conferência do incidente processual, o(a) requerente deverá apresentar sua petição de requerimento com cópia dos seguintes documentos necessários para a expedição do ofício requisitório, devidamente separados e categorizados, sob pena de indeferimento, nos termos dos artigos 5º, § 2º e 6º, § 3 do Provimento 2.753/2024: I - sentença e/ou acórdão referentes à condenação pelo juízo de origem ou cópia autenticada do título executivo extrajudicial, se o caso; II - certidão de trânsito em julgado da fase de conhecimento; III - decisão definitiva que homologou os cálculos objeto da requisição ou decisão que determinou a expedição dos valores incontroversos; IV - certidão do trânsito em julgado dos embargos à execução ou da decisão que resolveu a impugnação ao cumprimento de sentença, ou do decurso de prazo para sua interposição; V - demonstrativo do cálculo homologado, exclusivamente relativo ao credor do requisitório individualizado, com a discriminação das verbas incidentes sobre o principal, bem como a data-base para a atualização dos valores; VI - cópia da procuração e substabelecimento do beneficiário outorgando poderes ao(s) advogado(s), com poderes para receber e dar quitação, nos quais deverão conter o nome legível e número de inscrição na OAB. VII - contrato de honorários advocatícios, quando requerido o destaque dessa verba; VIII - cópia do documento de identificação oficial e válido do beneficiário; IX dados de conta bancária hábil ao recebimento do crédito a ser requisitado (Banco, Código do Banco, Agência, Conta, Tipo de conta, Código de Varia - caso se trate de conta poupança, Titularidade da Conta, CPF/CNPJ do Titular da Conta), o qual deverá ser pago diretamente pela entidade devedora ao credor, sem necessidade de depósito em conta judicial. X - outros documentos considerados como indispensáveis ao processamento da requisição no caso concreto. 3) Requisição do crédito do(a) advogado(a): A critério dos interessados, os valores devidos poderão ser requisitados conjuntamente, em um único incidente processual, ou requisitados de forma apartada, separando-se o valor do crédito principal (principal bruto/líquido + juros moratórios) e o valor da sucumbência, nos termos da Súmula Vinculante nº 47, hipótese em que os(as) exequentes deverão providenciar, em incidentes processuais distintos, a requisição do crédito do(a) autor(a) e dos valores devidos a título de honorários de sucumbência, sendo o primeiro formado em nome da parte autora e o último formado em nome do(a) advogado(a) requerente. Já os honorários advocatícios contratuais devem ser obrigatoriamente requisitados juntamente do principal, sob pena de configurar fracionamento. A Entidade Devedora é parte estranha ao contrato firmado entre o(a) exequente e seu(sua) advogado(a) (STF, RE 1.094.439 AgR, 2ª T, Rel. Min. DIAS TOFFOLI, j. 2.3.2018). Na hipótese de o(a) advogado(a) pretender a individualização dos honorários contratuais em campo próprio dentro do requisitório do crédito do(a) exequente, deverá apresentar planilha da conta, com a exata separação das verbas referentes ao principal bruto/líquido, juros de mora, honorários sucumbenciais, honorários contratuais e demais verbas, e cópia do contrato de prestação de serviços. 4) Individualização de requisitórios: Havendo mais de um credor, os ofícios de requisição deverão ser expedidos de modo individual por credor em requisições separadas, na proporção devida a cada um, ainda que exista litisconsórcio, bem como a planilha de cálculos e a documentação necessária igualmente deverão ser apresentadas de forma individualizada por credor, nos termos da Portaria nº 9.622/2018 (D.J.E. de 08/06/18) e do Comunicado Conjunto nº 1.212/2018 (D.J.E. de 22/06/18), que regulamentam a expedição dos requisitórios de pagamento no âmbito deste Tribunal. Para tanto, deverão os(as) exequentes apresentar, antes do peticionamento eletrônico do incidente processual e nos autos do Cumprimento de Sentença contra a Fazenda Pública, a competente planilha de cálculo, com a exata separação das verbas, individualizadas por credor, a fim de possibilitar a correta aferição pela parte contrária e por este Juízo do quinhão cabente a cada requerente ou litisconsorte. 5) Disposições finais: Defiro o prazo de 30 (trinta) dias para cumprimento. Devidamente instaurados os incidentes e requisitados os valores, aguarde-se o pagamento lançando-se o código SAJ nº 15.247, Após extinção do ultimo incidente pela quitação, estes autos deverão ser remetidos à conclusão para extinção da execução, nos termos do § 1º do art. 1.291 do provimento CGJ nº 29/2023). No silêncio a qualquer tempo, certifique-se e aguarde-se provocação no arquivo provisório (61614). Int. - ADV: MARCO AURELIO NYIKOS (OAB 359514/SP)</t>
         </is>
       </c>
     </row>
